--- a/Sprint3/ChatBot/Lista de Danos em Veiculos (version 1).xlsb.xlsx
+++ b/Sprint3/ChatBot/Lista de Danos em Veiculos (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmaz\OneDrive\Documents\Challenge_Porto_Seguro\Sprint3\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0EEBC-FCA7-4F9A-A0CC-D3369AA5DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E249E9A-5E20-4815-8385-EE3C8735378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de danos em veiculos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="85">
   <si>
     <t>Codigo</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Desgaste no volante</t>
   </si>
   <si>
-    <t>Desgaste nos pedais</t>
-  </si>
-  <si>
     <t>Manchas no teto do carro</t>
   </si>
   <si>
@@ -197,30 +194,6 @@
     <t>Airbag com defeito</t>
   </si>
   <si>
-    <t>Sistema de alarme com defeito</t>
-  </si>
-  <si>
-    <t>Problemas na fiação interna</t>
-  </si>
-  <si>
-    <t>Sensores de estacionamento com defeito</t>
-  </si>
-  <si>
-    <t>Faróis internos opacos</t>
-  </si>
-  <si>
-    <t>Problemas no sistema de ajuste dos bancos</t>
-  </si>
-  <si>
-    <t>Porta-malas com dificuldades de abrir/fechar</t>
-  </si>
-  <si>
-    <t>Problemas com o ajuste dos bancos</t>
-  </si>
-  <si>
-    <t>Luzes indicadoras do painel não funcionando corretamente</t>
-  </si>
-  <si>
     <t>Pane elétrica</t>
   </si>
   <si>
@@ -314,10 +287,10 @@
     <t>Internas</t>
   </si>
   <si>
-    <t>Sem Midia.</t>
-  </si>
-  <si>
     <t>Numeração da Imagem</t>
+  </si>
+  <si>
+    <t>Desgaste no pedais</t>
   </si>
 </sst>
 </file>
@@ -441,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -465,12 +438,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,22 +787,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61478474-73F2-4232-811C-E12BA1CB0B44}">
   <dimension ref="D2:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D89" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="6" width="62.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
@@ -836,11 +814,11 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>93</v>
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
@@ -854,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -868,10 +846,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H7" s="9">
         <v>2</v>
@@ -885,10 +863,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H8" s="9">
         <v>3</v>
@@ -905,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H9" s="9">
         <v>4</v>
@@ -919,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H10" s="9">
         <v>5</v>
@@ -939,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H11" s="9">
         <v>6</v>
@@ -953,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9">
         <v>7</v>
@@ -970,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H13" s="9">
         <v>8</v>
@@ -990,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H14" s="9">
         <v>9</v>
@@ -1004,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="9">
         <v>10</v>
@@ -1024,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H16" s="9">
         <v>13</v>
@@ -1041,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H17" s="9">
         <v>14</v>
@@ -1058,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H18" s="9">
         <v>15</v>
@@ -1072,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H19" s="9">
         <v>16</v>
@@ -1089,10 +1067,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H20" s="9">
         <v>17</v>
@@ -1106,10 +1084,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H21" s="9">
         <v>18</v>
@@ -1123,10 +1101,10 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H22" s="9">
         <v>19</v>
@@ -1140,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H23" s="9">
         <v>20</v>
@@ -1157,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H24" s="9">
         <v>21</v>
@@ -1174,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H25" s="9">
         <v>22</v>
@@ -1191,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H26" s="9">
         <v>23</v>
@@ -1211,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H27" s="9">
         <v>24</v>
@@ -1225,10 +1203,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H28" s="9">
         <v>25</v>
@@ -1245,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H29" s="9">
         <v>26</v>
@@ -1262,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H30" s="9">
         <v>27</v>
@@ -1279,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -1296,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -1310,10 +1288,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H33" s="9">
         <v>31</v>
@@ -1327,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H34" s="9">
         <v>32</v>
@@ -1344,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H35" s="9">
         <v>33</v>
@@ -1364,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H36" s="9">
         <v>34</v>
@@ -1381,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H37" s="9">
         <v>36</v>
@@ -1395,10 +1373,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H38" s="9">
         <v>37</v>
@@ -1412,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H39" s="9">
         <v>38</v>
@@ -1429,10 +1407,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H40" s="9">
         <v>39</v>
@@ -1446,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H41" s="9">
         <v>40</v>
@@ -1463,10 +1441,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H42" s="9">
         <v>41</v>
@@ -1480,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H43" s="9">
         <v>42</v>
@@ -1497,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H44" s="9">
         <v>43</v>
@@ -1514,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H45" s="9">
         <v>44</v>
@@ -1534,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H46" s="9">
         <v>46</v>
@@ -1551,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H47" s="9">
         <v>47</v>
@@ -1565,10 +1543,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H48" s="9">
         <v>48</v>
@@ -1582,10 +1560,10 @@
         <v>9</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H49" s="9">
         <v>49</v>
@@ -1602,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H50" s="9">
         <v>50</v>
@@ -1619,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H51" s="9">
         <v>51</v>
@@ -1636,7 +1614,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H52" s="9">
         <v>52</v>
@@ -1650,10 +1628,10 @@
         <v>9</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H53" s="9">
         <v>53</v>
@@ -1667,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H54" s="9">
         <v>54</v>
@@ -1683,11 +1661,11 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>85</v>
+      <c r="F55" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H55" s="9">
         <v>55</v>
@@ -1704,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H56" s="9">
         <v>56</v>
@@ -1721,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H57" s="9">
         <v>57</v>
@@ -1735,10 +1713,10 @@
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H58" s="9">
         <v>58</v>
@@ -1752,10 +1730,10 @@
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H59" s="9">
         <v>59</v>
@@ -1772,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H60" s="9">
         <v>61</v>
@@ -1786,10 +1764,10 @@
         <v>9</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H61" s="9">
         <v>62</v>
@@ -1806,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H62" s="9">
         <v>63</v>
@@ -1823,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H63" s="9">
         <v>64</v>
@@ -1837,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H64" s="9">
         <v>68</v>
@@ -1854,10 +1832,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H65" s="9">
         <v>69</v>
@@ -1871,10 +1849,10 @@
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H66" s="9">
         <v>70</v>
@@ -1888,10 +1866,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H67" s="9">
         <v>71</v>
@@ -1908,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H68" s="9">
         <v>73</v>
@@ -1922,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H69" s="9">
         <v>74</v>
@@ -1939,10 +1917,10 @@
         <v>9</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H70" s="9">
         <v>75</v>
@@ -1956,10 +1934,10 @@
         <v>9</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H71" s="9">
         <v>76</v>
@@ -1973,10 +1951,10 @@
         <v>9</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H72" s="9">
         <v>77</v>
@@ -1990,10 +1968,10 @@
         <v>9</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H73" s="9">
         <v>78</v>
@@ -2010,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H74" s="9">
         <v>79</v>
@@ -2027,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H75" s="9">
         <v>80</v>
@@ -2044,10 +2022,10 @@
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H76" s="9">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
@@ -2061,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H77" s="9">
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
@@ -2075,13 +2053,13 @@
         <v>9</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H78" s="9">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
@@ -2092,13 +2070,13 @@
         <v>9</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H79" s="9">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
@@ -2109,13 +2087,13 @@
         <v>9</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H80" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
@@ -2126,13 +2104,13 @@
         <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H81" s="9">
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
@@ -2143,13 +2121,13 @@
         <v>9</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H82" s="9">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
@@ -2160,13 +2138,13 @@
         <v>9</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H83" s="9">
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
@@ -2177,13 +2155,13 @@
         <v>9</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H84" s="9">
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
@@ -2194,13 +2172,13 @@
         <v>9</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H85" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.25">
@@ -2211,13 +2189,13 @@
         <v>9</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H86" s="9">
         <v>91</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
@@ -2228,12 +2206,12 @@
         <v>9</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" s="9">
         <v>92</v>
       </c>
     </row>
@@ -2245,13 +2223,13 @@
         <v>9</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H88" s="9">
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
@@ -2262,13 +2240,13 @@
         <v>9</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H89" s="9">
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
@@ -2279,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H90" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
@@ -2296,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H91" s="9">
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
@@ -2313,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H92" s="9">
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
@@ -2330,13 +2308,13 @@
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H93" s="9">
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
@@ -2347,13 +2325,13 @@
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H94" s="9">
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
@@ -2364,13 +2342,13 @@
         <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H95" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
@@ -2381,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H96" s="9">
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.25">
@@ -2398,13 +2376,13 @@
         <v>7</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H97" s="9">
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
@@ -2415,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H98" s="9">
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
@@ -2432,13 +2410,13 @@
         <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H99" s="9">
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
@@ -2449,13 +2427,13 @@
         <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H100" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
@@ -2466,13 +2444,13 @@
         <v>7</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H101" s="9">
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
@@ -2483,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H102" s="9">
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
@@ -2500,13 +2478,13 @@
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H103" s="9">
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
@@ -2517,13 +2495,13 @@
         <v>7</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H104" s="9">
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
@@ -2534,13 +2512,13 @@
         <v>7</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H105" s="9">
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
@@ -2551,13 +2529,13 @@
         <v>6</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H106" s="9">
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
@@ -2568,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H107" s="9">
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
@@ -2585,13 +2563,13 @@
         <v>6</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H108" s="9">
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
@@ -2602,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H109" s="9">
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
@@ -2619,13 +2597,13 @@
         <v>6</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H110" s="9">
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
@@ -2636,13 +2614,13 @@
         <v>6</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H111" s="9">
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
@@ -2653,13 +2631,13 @@
         <v>6</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H112" s="9">
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
@@ -2670,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H113" s="9">
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
@@ -2687,13 +2665,13 @@
         <v>6</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H114" s="9">
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.25">
@@ -2704,187 +2682,84 @@
         <v>6</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="7">
-        <v>111</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="H115" s="9">
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="7">
-        <v>112</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D117" s="13"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118" s="7">
-        <v>113</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" s="7">
-        <v>114</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D120" s="7">
-        <v>115</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D121" s="7">
-        <v>116</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D122" s="7">
-        <v>117</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D123" s="7">
-        <v>118</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" s="7">
-        <v>119</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D124" s="13"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D125" s="7">
-        <v>120</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D126" s="7"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" s="10"/>
